--- a/inputXls/school.xlsx
+++ b/inputXls/school.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE697C22-9781-45A3-95C8-E8B8860434E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ACEFC1-4264-417B-A772-5299A7937237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="13710" windowHeight="13605" xr2:uid="{3921A8DE-2FBB-4185-94B8-D3E57287AF28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{3921A8DE-2FBB-4185-94B8-D3E57287AF28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>SMPN 24 TAKENGON</t>
   </si>
@@ -515,13 +515,46 @@
   </si>
   <si>
     <t>educationLevelId </t>
+  </si>
+  <si>
+    <t>UNJ</t>
+  </si>
+  <si>
+    <t>IAIN</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>FKIP</t>
+  </si>
+  <si>
+    <t>STAI</t>
+  </si>
+  <si>
+    <t>UNSYIAH</t>
+  </si>
+  <si>
+    <t>STKIP</t>
+  </si>
+  <si>
+    <t>STAIN</t>
+  </si>
+  <si>
+    <t>UNSYAH</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>SMEA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,22 +563,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -570,11 +598,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,1131 +921,1261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2F2103-4D04-47F3-BDD9-048B3F36E807}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="60.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="60.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="60.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>3</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>3</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>3</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>3</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>3</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>3</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>3</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <v>3</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>3</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>3</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>3</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>3</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>3</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <v>3</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <v>3</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <v>3</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <v>3</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <v>3</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <v>3</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="3">
         <v>3</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>3</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="3">
         <v>3</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="3">
         <v>3</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="3">
         <v>3</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="3">
         <v>3</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>3</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2">
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
         <v>3</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>3</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="2">
+      <c r="B52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3">
         <v>3</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="3">
         <v>3</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <v>3</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="3">
         <v>3</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="3">
         <v>3</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <v>3</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="3">
         <v>3</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="3">
         <v>3</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="3">
         <v>3</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="3">
         <v>3</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="3">
         <v>3</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="3">
         <v>3</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="3">
         <v>3</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="3">
         <v>3</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="3">
         <v>3</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="3">
         <v>3</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="3">
         <v>3</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="3">
         <v>3</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="3">
         <v>3</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="3">
         <v>3</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="3">
         <v>3</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="3">
         <v>3</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="3">
         <v>3</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="3">
         <v>3</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="3">
         <v>3</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="3">
         <v>3</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="3">
         <v>3</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="3">
         <v>3</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
       </c>
     </row>
+    <row r="80" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3">
+        <v>5</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3">
+        <v>5</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3">
+        <v>5</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3">
+        <v>5</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3">
+        <v>5</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B79">
-    <sortCondition ref="A1:A79"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inputXls/school.xlsx
+++ b/inputXls/school.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4692F1-5AD7-439A-A2D3-A38C4C72886D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE0C26F-94F1-4C55-AFE0-9690ED1BE871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{3921A8DE-2FBB-4185-94B8-D3E57287AF28}"/>
+    <workbookView xWindow="345" yWindow="1215" windowWidth="13710" windowHeight="13605" xr2:uid="{3921A8DE-2FBB-4185-94B8-D3E57287AF28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="518">
   <si>
     <t>SMPN 24 TAKENGON</t>
   </si>
@@ -1424,13 +1424,178 @@
   </si>
   <si>
     <t>npsn</t>
+  </si>
+  <si>
+    <t>SMPS BENIH BANGSA</t>
+  </si>
+  <si>
+    <t>SMPS 1001</t>
+  </si>
+  <si>
+    <t>SMPN UNGGUL PONDOK MODERN</t>
+  </si>
+  <si>
+    <t>SMPN PERISAI KUTACANE</t>
+  </si>
+  <si>
+    <t>SMP TERPADU SEMAYOEN NUSANTARA</t>
+  </si>
+  <si>
+    <t>SMP SWASTA GALIH AGUNG</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH 05</t>
+  </si>
+  <si>
+    <t>SMP BUSTANUL ARIFIN</t>
+  </si>
+  <si>
+    <t>SMP BUDI DARMA</t>
+  </si>
+  <si>
+    <t>PSNTREN SMSUL DUHA</t>
+  </si>
+  <si>
+    <t>PSNTREN BUSTANUL A</t>
+  </si>
+  <si>
+    <t>PONPES TAHFIZHUL QURAN DARUL QOLAM</t>
+  </si>
+  <si>
+    <t>PESANTREN TERPADU AL MUSLIM</t>
+  </si>
+  <si>
+    <t>PESANTREN RAUDATUL ULUM</t>
+  </si>
+  <si>
+    <t>PESANTREN NURUL ISLAM</t>
+  </si>
+  <si>
+    <t>PESANTREN MODERN MISBAHUL ULUM</t>
+  </si>
+  <si>
+    <t>PESANTREN MODERN DARUL IHSAN MEDAN</t>
+  </si>
+  <si>
+    <t>PESANTREN MODERN AZ ZAHRAH</t>
+  </si>
+  <si>
+    <t>PESANTREN INSAN QUR'ANI ACEH BESAR</t>
+  </si>
+  <si>
+    <t>PESANTREN AZZAHRA</t>
+  </si>
+  <si>
+    <t>PESANTREN AL KAUSAR</t>
+  </si>
+  <si>
+    <t>PESANT SYAMSUTDIN RIAU</t>
+  </si>
+  <si>
+    <t>PES DARUL ULUM PEUREULAK</t>
+  </si>
+  <si>
+    <t>NURUL ISLAM RAKAL</t>
+  </si>
+  <si>
+    <t>MTsS ULUMUL QURAN</t>
+  </si>
+  <si>
+    <t>MTsS ULUMUDDIN</t>
+  </si>
+  <si>
+    <t>MTsS SYAMSUDDUHA</t>
+  </si>
+  <si>
+    <t>MTSS LELABU</t>
+  </si>
+  <si>
+    <t>MTsS IKHWANUL YAKIN</t>
+  </si>
+  <si>
+    <t>MTsS IHYAAUSUNNAH</t>
+  </si>
+  <si>
+    <t>MTsS DAYAH JEUMALA AMAL</t>
+  </si>
+  <si>
+    <t>MTsS DAMORA YAPENA LHOKSEUMAWE</t>
+  </si>
+  <si>
+    <t>MTsS ASWAJA</t>
+  </si>
+  <si>
+    <t>MTsS AR RAHMAN</t>
+  </si>
+  <si>
+    <t>MTSS ALMUSLIMUN</t>
+  </si>
+  <si>
+    <t>MTsS AL UMMAH</t>
+  </si>
+  <si>
+    <t>MTsS AL MUSLIM MATANG</t>
+  </si>
+  <si>
+    <t>MTSs AL MUSLIM</t>
+  </si>
+  <si>
+    <t>MTSS AL KIMANAH</t>
+  </si>
+  <si>
+    <t>MTsS AHLUSSUNNAH WALJAMAAH</t>
+  </si>
+  <si>
+    <t>MTsN ULUMUL QURAN</t>
+  </si>
+  <si>
+    <t>MTsN TANJUNG BALAI</t>
+  </si>
+  <si>
+    <t>MTs TABIB AL MUALIMIN AL ISLAMY MEDAN</t>
+  </si>
+  <si>
+    <t>MTs INSAN QURANI</t>
+  </si>
+  <si>
+    <t>MTs DARUL MUKLISIN</t>
+  </si>
+  <si>
+    <t>MTs AZ ZAHRA</t>
+  </si>
+  <si>
+    <t>MTs AL MUSLIM</t>
+  </si>
+  <si>
+    <t>MTs 28</t>
+  </si>
+  <si>
+    <t>DAYAH MODERN ARUN</t>
+  </si>
+  <si>
+    <t>DARUL ULUM AL WALIYAH</t>
+  </si>
+  <si>
+    <t>DARUL MUKLISIN</t>
+  </si>
+  <si>
+    <t>BUSTANUL ARIFIN</t>
+  </si>
+  <si>
+    <t>SMPS HARAPN UMAT</t>
+  </si>
+  <si>
+    <t>MTsS ULUMUDDIN LHOKSEUMAWE</t>
+  </si>
+  <si>
+    <t>MTsS LHOKSEUMAWE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,6 +1639,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1483,12 +1655,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1500,17 +1687,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1521,7 +1753,18 @@
     <cellStyle name="Normal 2 3" xfId="2" xr:uid="{BEC4F8C6-36AC-47DE-862A-3A8391D6B424}"/>
     <cellStyle name="Normal 2 6" xfId="3" xr:uid="{C2EE3FA6-FCC4-4D70-8B74-2D02E7B6A707}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1831,37 +2074,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B6154F-E7A7-49BA-815B-1A83B1C27132}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="101.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1870,12 +2113,12 @@
       <c r="C2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1884,12 +2127,12 @@
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1898,12 +2141,12 @@
       <c r="C4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1912,12 +2155,12 @@
       <c r="C5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1926,12 +2169,12 @@
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1940,12 +2183,12 @@
       <c r="C7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1954,12 +2197,12 @@
       <c r="C8" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1968,12 +2211,12 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1982,12 +2225,12 @@
       <c r="C10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1996,12 +2239,12 @@
       <c r="C11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2010,12 +2253,12 @@
       <c r="C12" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2024,12 +2267,12 @@
       <c r="C13" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2038,12 +2281,12 @@
       <c r="C14" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2052,12 +2295,12 @@
       <c r="C15" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2066,12 +2309,12 @@
       <c r="C16" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2080,12 +2323,12 @@
       <c r="C17" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2094,12 +2337,12 @@
       <c r="C18" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2108,12 +2351,12 @@
       <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2122,12 +2365,12 @@
       <c r="C20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2136,12 +2379,12 @@
       <c r="C21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2150,12 +2393,12 @@
       <c r="C22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2164,12 +2407,12 @@
       <c r="C23" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2178,12 +2421,12 @@
       <c r="C24" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2192,12 +2435,12 @@
       <c r="C25" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2206,12 +2449,12 @@
       <c r="C26" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2220,12 +2463,12 @@
       <c r="C27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2234,12 +2477,12 @@
       <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2248,12 +2491,12 @@
       <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2262,12 +2505,12 @@
       <c r="C30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2276,12 +2519,12 @@
       <c r="C31" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2290,12 +2533,12 @@
       <c r="C32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2304,12 +2547,12 @@
       <c r="C33" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2318,12 +2561,12 @@
       <c r="C34" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -2332,12 +2575,12 @@
       <c r="C35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -2346,12 +2589,12 @@
       <c r="C36" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -2360,12 +2603,12 @@
       <c r="C37" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -2374,12 +2617,12 @@
       <c r="C38" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -2388,12 +2631,12 @@
       <c r="C39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -2402,12 +2645,12 @@
       <c r="C40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2416,12 +2659,12 @@
       <c r="C41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -2430,12 +2673,12 @@
       <c r="C42" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2444,12 +2687,12 @@
       <c r="C43" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -2458,12 +2701,12 @@
       <c r="C44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -2472,12 +2715,12 @@
       <c r="C45" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -2486,12 +2729,12 @@
       <c r="C46" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -2500,12 +2743,12 @@
       <c r="C47" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -2514,12 +2757,12 @@
       <c r="C48" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -2528,12 +2771,12 @@
       <c r="C49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -2542,12 +2785,12 @@
       <c r="C50" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -2556,12 +2799,12 @@
       <c r="C51" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -2570,12 +2813,12 @@
       <c r="C52" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -2584,12 +2827,12 @@
       <c r="C53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2598,12 +2841,12 @@
       <c r="C54" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -2612,12 +2855,12 @@
       <c r="C55" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2626,12 +2869,12 @@
       <c r="C56" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2640,12 +2883,12 @@
       <c r="C57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -2654,12 +2897,12 @@
       <c r="C58" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -2668,12 +2911,12 @@
       <c r="C59" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -2682,12 +2925,12 @@
       <c r="C60" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -2696,12 +2939,12 @@
       <c r="C61" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -2710,12 +2953,12 @@
       <c r="C62" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -2724,12 +2967,12 @@
       <c r="C63" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -2738,12 +2981,12 @@
       <c r="C64" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -2752,12 +2995,12 @@
       <c r="C65" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -2766,12 +3009,12 @@
       <c r="C66" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -2780,12 +3023,12 @@
       <c r="C67" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -2794,12 +3037,12 @@
       <c r="C68" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -2808,12 +3051,12 @@
       <c r="C69" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -2822,12 +3065,12 @@
       <c r="C70" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -2836,12 +3079,12 @@
       <c r="C71" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -2850,12 +3093,12 @@
       <c r="C72" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -2864,12 +3107,12 @@
       <c r="C73" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -2878,12 +3121,12 @@
       <c r="C74" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -2892,12 +3135,12 @@
       <c r="C75" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -2906,12 +3149,12 @@
       <c r="C76" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -2920,12 +3163,12 @@
       <c r="C77" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -2934,12 +3177,12 @@
       <c r="C78" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -2948,12 +3191,12 @@
       <c r="C79" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -2962,12 +3205,12 @@
       <c r="C80" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -2976,12 +3219,12 @@
       <c r="C81" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -2990,12 +3233,12 @@
       <c r="C82" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -3004,12 +3247,12 @@
       <c r="C83" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -3018,12 +3261,12 @@
       <c r="C84" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -3032,12 +3275,12 @@
       <c r="C85" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -3046,12 +3289,12 @@
       <c r="C86" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -3060,12 +3303,12 @@
       <c r="C87" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -3074,12 +3317,12 @@
       <c r="C88" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -3088,12 +3331,12 @@
       <c r="C89" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -3102,12 +3345,12 @@
       <c r="C90" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -3116,12 +3359,12 @@
       <c r="C91" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -3130,12 +3373,12 @@
       <c r="C92" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -3144,12 +3387,12 @@
       <c r="C93" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -3158,12 +3401,12 @@
       <c r="C94" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -3172,12 +3415,12 @@
       <c r="C95" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -3186,12 +3429,12 @@
       <c r="C96" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -3200,12 +3443,12 @@
       <c r="C97" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -3214,12 +3457,12 @@
       <c r="C98" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -3228,12 +3471,12 @@
       <c r="C99" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -3242,12 +3485,12 @@
       <c r="C100" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -3256,12 +3499,12 @@
       <c r="C101" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -3270,12 +3513,12 @@
       <c r="C102" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -3284,12 +3527,12 @@
       <c r="C103" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -3298,12 +3541,12 @@
       <c r="C104" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -3312,12 +3555,12 @@
       <c r="C105" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -3326,12 +3569,12 @@
       <c r="C106" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -3340,12 +3583,12 @@
       <c r="C107" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -3354,12 +3597,12 @@
       <c r="C108" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -3368,12 +3611,12 @@
       <c r="C109" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -3382,12 +3625,12 @@
       <c r="C110" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -3396,12 +3639,12 @@
       <c r="C111" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -3410,12 +3653,12 @@
       <c r="C112" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -3424,12 +3667,12 @@
       <c r="C113" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B114" s="4" t="s">
@@ -3438,12 +3681,12 @@
       <c r="C114" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="3" t="s">
         <v>354</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -3452,12 +3695,12 @@
       <c r="C115" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -3466,12 +3709,12 @@
       <c r="C116" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>360</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -3480,12 +3723,12 @@
       <c r="C117" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
         <v>363</v>
       </c>
       <c r="B118" s="4" t="s">
@@ -3494,12 +3737,12 @@
       <c r="C118" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="3" t="s">
         <v>366</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -3508,12 +3751,12 @@
       <c r="C119" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -3522,12 +3765,12 @@
       <c r="C120" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>372</v>
       </c>
       <c r="B121" s="4" t="s">
@@ -3536,12 +3779,12 @@
       <c r="C121" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B122" s="4" t="s">
@@ -3550,12 +3793,12 @@
       <c r="C122" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="3" t="s">
         <v>378</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -3564,12 +3807,12 @@
       <c r="C123" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -3578,12 +3821,12 @@
       <c r="C124" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="3" t="s">
         <v>383</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -3592,12 +3835,12 @@
       <c r="C125" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="3" t="s">
         <v>386</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -3606,12 +3849,12 @@
       <c r="C126" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="3" t="s">
         <v>390</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -3620,12 +3863,12 @@
       <c r="C127" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="3" t="s">
         <v>392</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -3634,12 +3877,12 @@
       <c r="C128" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -3648,12 +3891,12 @@
       <c r="C129" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -3662,12 +3905,12 @@
       <c r="C130" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="3" t="s">
         <v>400</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -3676,12 +3919,12 @@
       <c r="C131" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -3690,12 +3933,12 @@
       <c r="C132" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -3704,12 +3947,12 @@
       <c r="C133" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="3" t="s">
         <v>407</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -3718,12 +3961,12 @@
       <c r="C134" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="3" t="s">
         <v>409</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -3732,12 +3975,12 @@
       <c r="C135" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B136" s="4" t="s">
@@ -3746,12 +3989,12 @@
       <c r="C136" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="3" t="s">
         <v>414</v>
       </c>
       <c r="B137" s="4" t="s">
@@ -3760,12 +4003,12 @@
       <c r="C137" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -3774,12 +4017,12 @@
       <c r="C138" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B139" s="4" t="s">
@@ -3788,12 +4031,12 @@
       <c r="C139" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B140" s="4" t="s">
@@ -3802,12 +4045,12 @@
       <c r="C140" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -3816,12 +4059,12 @@
       <c r="C141" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="3" t="s">
         <v>428</v>
       </c>
       <c r="B142" s="4" t="s">
@@ -3830,12 +4073,12 @@
       <c r="C142" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B143" s="4" t="s">
@@ -3844,12 +4087,12 @@
       <c r="C143" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="3" t="s">
         <v>434</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -3858,12 +4101,12 @@
       <c r="C144" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="3" t="s">
         <v>438</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -3872,12 +4115,12 @@
       <c r="C145" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="3" t="s">
         <v>440</v>
       </c>
       <c r="B146" s="4" t="s">
@@ -3886,12 +4129,12 @@
       <c r="C146" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -3900,12 +4143,12 @@
       <c r="C147" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B148" s="4" t="s">
@@ -3914,12 +4157,12 @@
       <c r="C148" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B149" s="4" t="s">
@@ -3928,12 +4171,12 @@
       <c r="C149" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="3" t="s">
         <v>451</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -3942,12 +4185,12 @@
       <c r="C150" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -3956,12 +4199,12 @@
       <c r="C151" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B152" s="4" t="s">
@@ -3970,12 +4213,12 @@
       <c r="C152" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -3984,237 +4227,681 @@
       <c r="C153" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D163" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D165" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D166" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D167" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D169" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D170" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D171" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D174" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D175" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D177" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="D178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D179" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D180" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D181" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D182" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D183" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D184" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D185" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D186" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D187" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D188" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D189" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D190" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D191" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D192" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D193" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D194" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D195" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D196" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="D197" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D198" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D199" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D200" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D201" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="D202" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="D203" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="D204" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="D205" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="D206" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D207" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="D208" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D209" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D210" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="D211" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D212" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="D213" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="D214" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D215" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D216" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="D217" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102273" xr:uid="{308A12EC-7544-4B8E-A3F7-576F7C875F1F}"/>
-    <hyperlink ref="A3" r:id="rId2" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107510" xr:uid="{43089A2F-267F-484D-8318-62BF865E7D30}"/>
-    <hyperlink ref="A4" r:id="rId3" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110649" xr:uid="{650F7AAB-A867-412E-8B1C-77934549C95C}"/>
-    <hyperlink ref="A5" r:id="rId4" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10101010" xr:uid="{E3919E2C-54EF-42DE-AF43-DA601D8DE2F8}"/>
-    <hyperlink ref="A6" r:id="rId5" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69774762" xr:uid="{F0E3576A-4DE5-4184-A324-228E2375BF48}"/>
-    <hyperlink ref="A7" r:id="rId6" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102252" xr:uid="{9CBBC27C-8335-447A-BDAF-1051241E5F2C}"/>
-    <hyperlink ref="A8" r:id="rId7" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107505" xr:uid="{93D92DED-07E1-4846-A1EE-26584562CDA4}"/>
-    <hyperlink ref="A9" r:id="rId8" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110648" xr:uid="{1C36EEA3-1C57-4D3F-AA59-D0A85932C91C}"/>
-    <hyperlink ref="A10" r:id="rId9" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102253" xr:uid="{D104957D-421A-4C19-8BE0-765705816AB6}"/>
-    <hyperlink ref="A11" r:id="rId10" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69938369" xr:uid="{1367E49A-8E52-4FA1-A929-EAED9EC9698E}"/>
-    <hyperlink ref="A12" r:id="rId11" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114338" xr:uid="{33C99B2D-4D69-43E0-A923-104E2619C2DA}"/>
-    <hyperlink ref="A13" r:id="rId12" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69881577" xr:uid="{8BC28F05-D997-4B10-B70D-25B3799BFF0F}"/>
-    <hyperlink ref="A14" r:id="rId13" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69888572" xr:uid="{0FED33EE-A86B-4535-987C-CB9086571EE6}"/>
-    <hyperlink ref="A15" r:id="rId14" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102257" xr:uid="{8A188D3F-9CDE-4BE8-B6D7-73D08EBB9132}"/>
-    <hyperlink ref="A16" r:id="rId15" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107813" xr:uid="{64CFE54C-837E-47F7-B8D7-CBA7E4D16AA0}"/>
-    <hyperlink ref="A17" r:id="rId16" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69875575" xr:uid="{7F28A64C-B176-4BBE-B53B-34D7448E1DFA}"/>
-    <hyperlink ref="A18" r:id="rId17" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102251" xr:uid="{7ACD8974-5F20-4120-BF18-D728282C8E60}"/>
-    <hyperlink ref="A19" r:id="rId18" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69975779" xr:uid="{8C0FCD3A-38BF-48AA-B371-4D8A52D3F352}"/>
-    <hyperlink ref="A20" r:id="rId19" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114347" xr:uid="{A003985F-4C47-4643-B192-7ABE382952F8}"/>
-    <hyperlink ref="A21" r:id="rId20" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69881578" xr:uid="{2CAA9398-CA1F-4FC5-8ABB-426A4CEECD3E}"/>
-    <hyperlink ref="A22" r:id="rId21" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107509" xr:uid="{72C9621A-A12C-460C-8DEC-AD85AB388EF2}"/>
-    <hyperlink ref="A23" r:id="rId22" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69990330" xr:uid="{C66CDA39-EC5C-475F-A135-4E45A543BED2}"/>
-    <hyperlink ref="A24" r:id="rId23" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=70006276" xr:uid="{89688FF2-1F7E-48A9-A900-3B35937D0373}"/>
-    <hyperlink ref="A25" r:id="rId24" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102186" xr:uid="{73C4EB05-BE3B-435F-A64D-197D69545338}"/>
-    <hyperlink ref="A26" r:id="rId25" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102242" xr:uid="{5315676A-6117-415F-961F-6BFB7E2F9B2F}"/>
-    <hyperlink ref="A27" r:id="rId26" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69774765" xr:uid="{12F8AF66-2914-4A4A-B37E-97E921B5F3DF}"/>
-    <hyperlink ref="A28" r:id="rId27" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102256" xr:uid="{E2D51E43-B7CC-42EB-AED8-CB10AAC37307}"/>
-    <hyperlink ref="A29" r:id="rId28" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69963441" xr:uid="{60507EE7-B577-48EE-9B30-BB4928E27025}"/>
-    <hyperlink ref="A30" r:id="rId29" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69994144" xr:uid="{B09B20AB-BB80-49C8-B4C4-39AFAE0E4B14}"/>
-    <hyperlink ref="A31" r:id="rId30" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=70014199" xr:uid="{72648BD2-9C28-4DB9-8731-1AA4F2024F68}"/>
-    <hyperlink ref="A32" r:id="rId31" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114336" xr:uid="{093D63D1-65A5-4FD3-8184-D777006C5981}"/>
-    <hyperlink ref="A33" r:id="rId32" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114337" xr:uid="{B9C1A3F9-F5EC-4616-B2C1-83D029EAE64D}"/>
-    <hyperlink ref="A34" r:id="rId33" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69881576" xr:uid="{908C5B2D-B235-44D7-8222-886D6D714027}"/>
-    <hyperlink ref="A35" r:id="rId34" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102294" xr:uid="{4FE16281-8B24-4A04-9F1D-97334FB511D0}"/>
-    <hyperlink ref="A36" r:id="rId35" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102295" xr:uid="{AB429527-13D6-44C2-90C0-989EEA66814A}"/>
-    <hyperlink ref="A37" r:id="rId36" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102189" xr:uid="{FE2A5687-F0E5-4737-8401-872B19E35CD0}"/>
-    <hyperlink ref="A38" r:id="rId37" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111926" xr:uid="{CE78345A-DAEC-4388-A823-B96EE598B08A}"/>
-    <hyperlink ref="A39" r:id="rId38" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69975780" xr:uid="{6D7991CD-CE6D-4930-90FD-5EB6DD849762}"/>
-    <hyperlink ref="A40" r:id="rId39" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114350" xr:uid="{5B983BEA-3EE1-43A2-81A1-BE1087E7B4B2}"/>
-    <hyperlink ref="A41" r:id="rId40" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114351" xr:uid="{8F8A356B-0B42-41C7-B7AA-328E088F24B0}"/>
-    <hyperlink ref="A42" r:id="rId41" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69876829" xr:uid="{243105A1-F1ED-45A0-A006-B814CA6284C6}"/>
-    <hyperlink ref="A43" r:id="rId42" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102190" xr:uid="{5F56D6AF-8414-40FF-91B0-36B3D25C8FE1}"/>
-    <hyperlink ref="A44" r:id="rId43" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114344" xr:uid="{A0DA7D14-774E-4D81-8D27-B607D899758C}"/>
-    <hyperlink ref="A45" r:id="rId44" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=70024527" xr:uid="{11F635E1-BC2A-457B-85FC-FECEBB25BFE9}"/>
-    <hyperlink ref="A46" r:id="rId45" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102244" xr:uid="{BD15C293-DC8B-474D-91DC-F3986CE6AC2D}"/>
-    <hyperlink ref="A47" r:id="rId46" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102246" xr:uid="{0AC5B0E6-E914-4D62-9A0B-734DED0715AA}"/>
-    <hyperlink ref="A48" r:id="rId47" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111924" xr:uid="{D38FD9A7-9357-4763-93F1-B6423CBE40CD}"/>
-    <hyperlink ref="A49" r:id="rId48" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111928" xr:uid="{FD17E02D-5213-43EA-A3BA-A696F95794DE}"/>
-    <hyperlink ref="A50" r:id="rId49" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10112961" xr:uid="{50A0BFA3-AA39-4594-88C9-19F1C43D39F6}"/>
-    <hyperlink ref="A51" r:id="rId50" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=70012264" xr:uid="{94924CBF-395C-4F54-A566-6CBAD937748B}"/>
-    <hyperlink ref="A52" r:id="rId51" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102270" xr:uid="{E6B29FE9-8BAA-4A37-A755-F79F46734DE5}"/>
-    <hyperlink ref="A53" r:id="rId52" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111925" xr:uid="{63CF2937-5972-4007-B406-1765AE8C0100}"/>
-    <hyperlink ref="A54" r:id="rId53" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111927" xr:uid="{583B5E2C-3D56-4202-882D-BF2DCD895B13}"/>
-    <hyperlink ref="A55" r:id="rId54" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102272" xr:uid="{878BB7B1-1FA2-4C76-81EE-875D614EA451}"/>
-    <hyperlink ref="A56" r:id="rId55" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102269" xr:uid="{7A612E72-0EA2-4D4B-B28E-C255CE7F2058}"/>
-    <hyperlink ref="A57" r:id="rId56" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114341" xr:uid="{3E95F8F1-FF06-4A88-8430-1A0A3C226565}"/>
-    <hyperlink ref="A58" r:id="rId57" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69788266" xr:uid="{78A10760-A6CC-48DF-992F-55B4F762858B}"/>
-    <hyperlink ref="A59" r:id="rId58" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114342" xr:uid="{27099197-A5A1-4912-AD46-E72D3A91692D}"/>
-    <hyperlink ref="A60" r:id="rId59" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69953709" xr:uid="{914F212F-D17F-4C10-A483-8FB136685C8E}"/>
-    <hyperlink ref="A61" r:id="rId60" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102188" xr:uid="{1521B759-F867-4F10-BB45-E49CB5DA97A8}"/>
-    <hyperlink ref="A62" r:id="rId61" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102182" xr:uid="{9F495F1B-7E1F-4C9A-9EBD-3DE64753B4EE}"/>
-    <hyperlink ref="A63" r:id="rId62" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107507" xr:uid="{7B6BCAA2-80F5-4F19-81ED-4C9E73689F29}"/>
-    <hyperlink ref="A64" r:id="rId63" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102274" xr:uid="{6120BF83-0629-4B2F-B0F1-68E1D0BBE953}"/>
-    <hyperlink ref="A65" r:id="rId64" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114346" xr:uid="{6B39B0A3-DEFC-4A8C-BFAB-422C8489D52F}"/>
-    <hyperlink ref="A66" r:id="rId65" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102241" xr:uid="{BFEB0012-DE3D-4061-91D3-035B879B4C6B}"/>
-    <hyperlink ref="A67" r:id="rId66" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69788267" xr:uid="{79DFEED7-E1E9-47A4-A4EE-B8762A58A242}"/>
-    <hyperlink ref="A68" r:id="rId67" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102245" xr:uid="{9056A7E6-0AE4-4363-8BD1-4AC9D14588DB}"/>
-    <hyperlink ref="A69" r:id="rId68" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102271" xr:uid="{8BA9A6D6-086E-4CE1-ACDD-CF814F94A22D}"/>
-    <hyperlink ref="A70" r:id="rId69" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69995566" xr:uid="{EEE005C5-2EC4-4243-A018-025227169D7A}"/>
-    <hyperlink ref="A71" r:id="rId70" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114340" xr:uid="{64EE5A61-A6EC-4A9A-8E77-9E7137F9AA21}"/>
-    <hyperlink ref="A72" r:id="rId71" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102184" xr:uid="{A168B78C-93E2-44D1-A7E0-B23128057943}"/>
-    <hyperlink ref="A73" r:id="rId72" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69963442" xr:uid="{CD40BB2D-2D4E-4FC3-958D-3C8353360DE4}"/>
-    <hyperlink ref="A74" r:id="rId73" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102258" xr:uid="{5FA65FB8-F3B8-417D-BA5F-1D1EF6E91245}"/>
-    <hyperlink ref="A75" r:id="rId74" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110647" xr:uid="{DA38FD45-A198-4333-9718-51EC3780A7A5}"/>
-    <hyperlink ref="A76" r:id="rId75" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10112962" xr:uid="{A6CD88DA-813A-4C35-B547-55D2F06F4F97}"/>
-    <hyperlink ref="A77" r:id="rId76" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114348" xr:uid="{719D1109-2026-4D25-9690-A7F4F468683F}"/>
-    <hyperlink ref="A78" r:id="rId77" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105165" xr:uid="{A1C41A83-0781-40DC-A070-9853748DE1F9}"/>
-    <hyperlink ref="A79" r:id="rId78" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105167" xr:uid="{C8F83C5C-97E8-4180-B6D1-2E4DF7BCFC0A}"/>
-    <hyperlink ref="A80" r:id="rId79" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107264" xr:uid="{0749BF38-6CF1-475F-A32F-A6E624183257}"/>
-    <hyperlink ref="A81" r:id="rId80" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725907" xr:uid="{B4D68FDD-229D-4D1B-AC60-2533D18A82F6}"/>
-    <hyperlink ref="A82" r:id="rId81" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725913" xr:uid="{76CB71FB-7B6D-40DE-8C67-CDD3AF5C61B3}"/>
-    <hyperlink ref="A83" r:id="rId82" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69969253" xr:uid="{65541881-69D7-41B5-BB02-CAE5BE5CD842}"/>
-    <hyperlink ref="A84" r:id="rId83" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114157" xr:uid="{8BC15F09-FD3E-4248-AF1E-FD0138C5996C}"/>
-    <hyperlink ref="A85" r:id="rId84" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114158" xr:uid="{7BD17F77-D88A-4AD1-8400-9C82250E081D}"/>
-    <hyperlink ref="A86" r:id="rId85" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114159" xr:uid="{D6B021EF-8B54-40E8-B4B6-DF4095D2C852}"/>
-    <hyperlink ref="A87" r:id="rId86" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105158" xr:uid="{2A204B35-4603-4522-8856-56916E38585A}"/>
-    <hyperlink ref="A88" r:id="rId87" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105164" xr:uid="{28BF1004-7483-456F-B882-E6F520C1355F}"/>
-    <hyperlink ref="A89" r:id="rId88" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107260" xr:uid="{E69F7A02-483B-40EB-9A58-39C645FCD73B}"/>
-    <hyperlink ref="A90" r:id="rId89" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110747" xr:uid="{C5D62A06-38E7-42A4-B328-04D115E5F0A7}"/>
-    <hyperlink ref="A91" r:id="rId90" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110754" xr:uid="{4E4E4BE9-3534-4314-9B62-089AA169D038}"/>
-    <hyperlink ref="A92" r:id="rId91" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107269" xr:uid="{839D0FCB-1847-4D40-8120-F537134F6CF4}"/>
-    <hyperlink ref="A93" r:id="rId92" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69912266" xr:uid="{EC8396E7-5A4D-4E8E-9502-13991A093774}"/>
-    <hyperlink ref="A94" r:id="rId93" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111605" xr:uid="{50C15349-7879-49D8-9013-EB4A4CF53404}"/>
-    <hyperlink ref="A95" r:id="rId94" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107266" xr:uid="{9B1CE9BA-C6CB-4AD3-A020-096D71A8438B}"/>
-    <hyperlink ref="A96" r:id="rId95" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114151" xr:uid="{32DF48CB-3881-4AF1-83EC-38375DA9ED3F}"/>
-    <hyperlink ref="A97" r:id="rId96" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=60728748" xr:uid="{274AC080-6431-4BC2-B32A-8D030EC77534}"/>
-    <hyperlink ref="A98" r:id="rId97" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=70009424" xr:uid="{5723BCAD-B628-456F-9E07-567E7E850EC0}"/>
-    <hyperlink ref="A99" r:id="rId98" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105155" xr:uid="{5F404F17-533B-41A5-83AB-AE6B8C14BFDC}"/>
-    <hyperlink ref="A100" r:id="rId99" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105157" xr:uid="{F60D405E-9D37-4B57-AC88-7859871EE85C}"/>
-    <hyperlink ref="A101" r:id="rId100" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105160" xr:uid="{5969B136-C452-46AE-A86C-D530FD4F698E}"/>
-    <hyperlink ref="A102" r:id="rId101" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105170" xr:uid="{61D66A9F-D448-4F5C-936C-F636758F22ED}"/>
-    <hyperlink ref="A103" r:id="rId102" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107263" xr:uid="{7F4A970D-694E-413E-9614-81142D541CE9}"/>
-    <hyperlink ref="A104" r:id="rId103" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110755" xr:uid="{CCCEEC6B-52CC-4423-A0C5-6BFCDB7E3679}"/>
-    <hyperlink ref="A105" r:id="rId104" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111941" xr:uid="{4014B4D0-FC88-4091-A04D-612D78C37A42}"/>
-    <hyperlink ref="A106" r:id="rId105" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105169" xr:uid="{A5BE718F-01A6-4A46-87D4-FAA7D0D9A326}"/>
-    <hyperlink ref="A107" r:id="rId106" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725893" xr:uid="{45DD0D94-5A3E-4E0D-B8FD-8687E8A4F0CF}"/>
-    <hyperlink ref="A108" r:id="rId107" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69982309" xr:uid="{C7047D66-AF38-4DBF-A300-19635D88016B}"/>
-    <hyperlink ref="A109" r:id="rId108" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114149" xr:uid="{5B3FDA58-720C-497A-9F68-544BC8312778}"/>
-    <hyperlink ref="A110" r:id="rId109" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105163" xr:uid="{10F7F2D4-9257-4D45-B6A3-AB40481C8BE0}"/>
-    <hyperlink ref="A111" r:id="rId110" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105179" xr:uid="{CA688FAD-FC3B-4010-B5F4-B319020CE451}"/>
-    <hyperlink ref="A112" r:id="rId111" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107261" xr:uid="{1C93E80C-69D5-4265-AA11-75C344A12F25}"/>
-    <hyperlink ref="A113" r:id="rId112" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107265" xr:uid="{BA05F36A-4CF6-4619-901E-F61F698D33C7}"/>
-    <hyperlink ref="A114" r:id="rId113" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725894" xr:uid="{8AA08198-6C3B-4A4D-8E30-5AA6E24941E5}"/>
-    <hyperlink ref="A115" r:id="rId114" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10112958" xr:uid="{E25DBFEC-996B-4E9E-B05B-943321C7F00A}"/>
-    <hyperlink ref="A116" r:id="rId115" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69880232" xr:uid="{7FE9BF5B-9F09-4FCF-B244-F946F0F09633}"/>
-    <hyperlink ref="A117" r:id="rId116" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107256" xr:uid="{30B95A63-3E72-4256-BD0B-208C4CACDDCE}"/>
-    <hyperlink ref="A118" r:id="rId117" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69969249" xr:uid="{4D625DD8-3E5A-4DA6-813C-907794C3D1AF}"/>
-    <hyperlink ref="A119" r:id="rId118" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=70028343" xr:uid="{9E39CBB1-B9F7-4D08-8B04-DF2F0F085AC5}"/>
-    <hyperlink ref="A120" r:id="rId119" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69977134" xr:uid="{4AB2F6C8-ABCF-427B-A9DD-57867CADF0A9}"/>
-    <hyperlink ref="A121" r:id="rId120" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114152" xr:uid="{1F1686B3-79F3-4BB5-878A-39F0588407A4}"/>
-    <hyperlink ref="A122" r:id="rId121" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114153" xr:uid="{ACC3FC84-F198-43F9-BDA7-8260CB88FD80}"/>
-    <hyperlink ref="A123" r:id="rId122" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105162" xr:uid="{F9A8F9C1-C434-4432-A7E0-03B2434E22F5}"/>
-    <hyperlink ref="A124" r:id="rId123" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105168" xr:uid="{B884EBF5-5738-4BD7-B56F-445D048B7202}"/>
-    <hyperlink ref="A125" r:id="rId124" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110748" xr:uid="{6CBB5453-C381-4614-A089-AE0EB07D0F4A}"/>
-    <hyperlink ref="A126" r:id="rId125" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110749" xr:uid="{7AD22B5C-66DF-49F1-956E-8C59CE692125}"/>
-    <hyperlink ref="A127" r:id="rId126" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725914" xr:uid="{7565BDB4-FB9B-4D02-A41B-CFEA9BC43166}"/>
-    <hyperlink ref="A128" r:id="rId127" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110751" xr:uid="{E1A40366-2C4B-491D-89F7-368F3BA54A8A}"/>
-    <hyperlink ref="A129" r:id="rId128" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=60728747" xr:uid="{4F411EFA-1DDC-4CE4-BDFF-1B74FEF16547}"/>
-    <hyperlink ref="A130" r:id="rId129" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114156" xr:uid="{D4F0642C-1472-40A6-98CB-D8C9C1C13C26}"/>
-    <hyperlink ref="A131" r:id="rId130" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114155" xr:uid="{FB069F85-324C-463D-B0C0-7D88726C37CB}"/>
-    <hyperlink ref="A132" r:id="rId131" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114154" xr:uid="{E04D477C-2363-462E-8E37-1C5746747C63}"/>
-    <hyperlink ref="A133" r:id="rId132" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69990269" xr:uid="{F6381BF5-8EB2-4C9F-BADE-921078003CA5}"/>
-    <hyperlink ref="A134" r:id="rId133" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107259" xr:uid="{5646CD25-87FD-4EE9-9408-FE584DF9ED49}"/>
-    <hyperlink ref="A135" r:id="rId134" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105161" xr:uid="{75B33DF6-1818-4F38-A59F-AC3C6CE342E4}"/>
-    <hyperlink ref="A136" r:id="rId135" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105166" xr:uid="{326B39E8-FA79-4E5B-B168-6C8EB08FBF77}"/>
-    <hyperlink ref="A137" r:id="rId136" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107262" xr:uid="{37EF6B39-7522-4A0B-B66F-7126B842A602}"/>
-    <hyperlink ref="A138" r:id="rId137" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69895043" xr:uid="{94D57010-225E-4F81-9382-371EFBCEE9E8}"/>
-    <hyperlink ref="A139" r:id="rId138" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114160" xr:uid="{5F077272-8274-49BA-8F15-BEB17248B417}"/>
-    <hyperlink ref="A140" r:id="rId139" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114161" xr:uid="{59A14B6B-AE4D-4C83-8008-1E7E8642E1FC}"/>
-    <hyperlink ref="A141" r:id="rId140" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107268" xr:uid="{FBE801E8-CCC0-49DF-AEBE-35108EF3BBE2}"/>
-    <hyperlink ref="A142" r:id="rId141" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69760697" xr:uid="{5B9B2B82-34CB-4A32-85F9-09FD49FDAB53}"/>
-    <hyperlink ref="A143" r:id="rId142" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107267" xr:uid="{5E038CC9-741D-42C6-AFB8-8678D2B133A9}"/>
-    <hyperlink ref="A144" r:id="rId143" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69989234" xr:uid="{4B291F1C-EC14-4794-B9A2-A27BA13D65AD}"/>
-    <hyperlink ref="A145" r:id="rId144" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69980614" xr:uid="{D0FFE905-4DF6-4E61-8912-D0901964A7E8}"/>
-    <hyperlink ref="A146" r:id="rId145" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114150" xr:uid="{B96DBA88-ADAF-4A59-BE25-0AB26C088405}"/>
-    <hyperlink ref="A147" r:id="rId146" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110756" xr:uid="{4247793C-B434-489F-8575-9E95219EC392}"/>
-    <hyperlink ref="A148" r:id="rId147" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110753" xr:uid="{52E77396-4BA2-4A5E-A247-2A0B92A3C7F9}"/>
-    <hyperlink ref="A149" r:id="rId148" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725892" xr:uid="{DA24F5E0-42D8-432E-840C-B20E6AF1C438}"/>
-    <hyperlink ref="A150" r:id="rId149" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725878" xr:uid="{01876BC5-A257-433F-BE6E-EC828C197438}"/>
-    <hyperlink ref="A151" r:id="rId150" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105159" xr:uid="{BFCD4218-80D2-46D6-9D4D-7D7615390C27}"/>
-    <hyperlink ref="A152" r:id="rId151" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110750" xr:uid="{C0406B23-A58A-4F2A-AC79-31793A4C6E03}"/>
-    <hyperlink ref="A153" r:id="rId152" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105156" xr:uid="{1E428FFD-22C6-41B9-9D84-1DAEBDC790BA}"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102273" xr:uid="{A0805DD1-1EB3-496A-9D72-9E10C2DD1C2B}"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107510" xr:uid="{55A59CA3-AFBD-4FD9-A2EF-2FFAC51A9BBF}"/>
+    <hyperlink ref="A4" r:id="rId3" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110649" xr:uid="{4A7B8352-6284-4574-A928-30A00557AE65}"/>
+    <hyperlink ref="A5" r:id="rId4" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10101010" xr:uid="{AF076E86-4FBB-46B3-AD4E-DBB4E2626DB6}"/>
+    <hyperlink ref="A6" r:id="rId5" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69774762" xr:uid="{0056186E-6800-4F69-A9CB-1E7C514EDB59}"/>
+    <hyperlink ref="A7" r:id="rId6" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102252" xr:uid="{5AACA701-947A-4F9E-A2B3-60B4FD01537E}"/>
+    <hyperlink ref="A8" r:id="rId7" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107505" xr:uid="{017559A0-FEE0-4946-AB0E-E8DCC6264524}"/>
+    <hyperlink ref="A9" r:id="rId8" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110648" xr:uid="{11D5EEA9-4619-49DA-880B-82003DD2C1AC}"/>
+    <hyperlink ref="A10" r:id="rId9" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102253" xr:uid="{B1E21448-BC49-4F1F-92E6-7588FD2FD02B}"/>
+    <hyperlink ref="A11" r:id="rId10" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69938369" xr:uid="{15F575BC-E1BD-4A3B-A1D8-F7A70A8B430A}"/>
+    <hyperlink ref="A12" r:id="rId11" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114338" xr:uid="{12EE0C3E-E027-4335-A7DE-5BC02DD1249A}"/>
+    <hyperlink ref="A13" r:id="rId12" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69881577" xr:uid="{004B2AF2-70ED-4C3B-A9C1-F9E49DC35AAF}"/>
+    <hyperlink ref="A14" r:id="rId13" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69888572" xr:uid="{AD3B4714-B0D6-430A-9ED6-961F500AB6D1}"/>
+    <hyperlink ref="A15" r:id="rId14" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102257" xr:uid="{96792751-6B5C-4763-ADA4-BBEEB915B062}"/>
+    <hyperlink ref="A16" r:id="rId15" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107813" xr:uid="{8DA2D366-771E-4681-8E7E-9BDA1C0A1386}"/>
+    <hyperlink ref="A17" r:id="rId16" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69875575" xr:uid="{D3ACB8B8-6ED6-4E78-86DA-0E2DDA016FBD}"/>
+    <hyperlink ref="A18" r:id="rId17" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102251" xr:uid="{36176F7C-7EC5-437F-8FD6-94F52671E50C}"/>
+    <hyperlink ref="A19" r:id="rId18" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69975779" xr:uid="{DAB9FE08-C2C9-44EF-9ECC-7E38D524C713}"/>
+    <hyperlink ref="A20" r:id="rId19" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114347" xr:uid="{06ABFC36-8517-417B-A3EE-3C28BC3B392E}"/>
+    <hyperlink ref="A21" r:id="rId20" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69881578" xr:uid="{3CE083FE-F7BA-4D33-9798-5E63470A81B0}"/>
+    <hyperlink ref="A22" r:id="rId21" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107509" xr:uid="{2240FB1B-5DC8-42E4-B357-02C216E88E22}"/>
+    <hyperlink ref="A23" r:id="rId22" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69990330" xr:uid="{F13087DB-C383-440B-BB00-436FC911C752}"/>
+    <hyperlink ref="A24" r:id="rId23" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=70006276" xr:uid="{79767097-994C-41C8-88F8-AF4D256C084D}"/>
+    <hyperlink ref="A25" r:id="rId24" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102186" xr:uid="{9454CFA5-F9F1-4896-9B96-9374E5BB073E}"/>
+    <hyperlink ref="A26" r:id="rId25" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102242" xr:uid="{6D5D77FA-549B-4157-BAF9-994AC72EEAE7}"/>
+    <hyperlink ref="A27" r:id="rId26" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69774765" xr:uid="{FAF32538-A56C-4838-AC63-517328924019}"/>
+    <hyperlink ref="A28" r:id="rId27" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102256" xr:uid="{AE129312-035C-4CAC-8A5B-540710B04122}"/>
+    <hyperlink ref="A29" r:id="rId28" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69963441" xr:uid="{6D781B64-C7E1-4780-8812-A9AABE735889}"/>
+    <hyperlink ref="A30" r:id="rId29" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69994144" xr:uid="{F2B2152F-8C57-493A-9EAA-2388558CD3CF}"/>
+    <hyperlink ref="A31" r:id="rId30" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=70014199" xr:uid="{B3D2C076-BEE6-4D95-964F-271C306F9578}"/>
+    <hyperlink ref="A32" r:id="rId31" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114336" xr:uid="{B94BEE82-03C1-4382-83C5-104F766FC02A}"/>
+    <hyperlink ref="A33" r:id="rId32" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114337" xr:uid="{1695318F-17A7-4E37-9BE9-F6398D6EA3C4}"/>
+    <hyperlink ref="A34" r:id="rId33" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69881576" xr:uid="{D16608F2-9166-4431-88F5-8257EEAEF192}"/>
+    <hyperlink ref="A35" r:id="rId34" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102294" xr:uid="{541CB1D0-63A2-4DB6-BC85-89F86C00F6F3}"/>
+    <hyperlink ref="A36" r:id="rId35" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102295" xr:uid="{3B066CDB-C2C5-4DFE-A286-1DF2E1D8C5F5}"/>
+    <hyperlink ref="A37" r:id="rId36" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102189" xr:uid="{59AECA90-5CA1-4C47-9F06-FD7A1E994BCF}"/>
+    <hyperlink ref="A38" r:id="rId37" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111926" xr:uid="{86DEDDFD-D6BE-48BB-8ECD-8AE181FBA23A}"/>
+    <hyperlink ref="A39" r:id="rId38" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69975780" xr:uid="{80000DAA-3F75-4A2D-81FD-050D7A821753}"/>
+    <hyperlink ref="A40" r:id="rId39" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114350" xr:uid="{3668DF5B-AFD7-425D-9F1E-A1D0FC9E35CF}"/>
+    <hyperlink ref="A41" r:id="rId40" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114351" xr:uid="{C6922893-A2A6-4723-9CE3-14C094DF1AC1}"/>
+    <hyperlink ref="A42" r:id="rId41" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69876829" xr:uid="{CC529E52-EE0B-4513-A1F4-AB768D0E3E4F}"/>
+    <hyperlink ref="A43" r:id="rId42" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102190" xr:uid="{99B14467-BD1F-4561-98D5-A0A61C22C3E7}"/>
+    <hyperlink ref="A44" r:id="rId43" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114344" xr:uid="{1F8BE37C-2E42-4AF2-A00F-DD311200D03B}"/>
+    <hyperlink ref="A45" r:id="rId44" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=70024527" xr:uid="{3165D45E-7F1D-4F4F-8153-9D81D1F5315A}"/>
+    <hyperlink ref="A46" r:id="rId45" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102244" xr:uid="{944A27DD-A3DE-42F0-AA36-E28D15FEAFDC}"/>
+    <hyperlink ref="A47" r:id="rId46" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102246" xr:uid="{6A7BE17F-31BC-46DA-921A-E788ABA734CC}"/>
+    <hyperlink ref="A48" r:id="rId47" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111924" xr:uid="{0E63C90C-1B5C-468D-B800-AD81AA65D4DD}"/>
+    <hyperlink ref="A49" r:id="rId48" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111928" xr:uid="{7BC3E0C3-F8C9-4EEA-AF1F-4BA159C5BC42}"/>
+    <hyperlink ref="A50" r:id="rId49" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10112961" xr:uid="{822055FF-A22D-4B2B-83F9-6BFB009C2A72}"/>
+    <hyperlink ref="A51" r:id="rId50" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=70012264" xr:uid="{E923BC0D-3106-4367-BB43-3C98983E4B7F}"/>
+    <hyperlink ref="A52" r:id="rId51" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102270" xr:uid="{C8197BC0-A3ED-41AA-8EA2-75CA93F35754}"/>
+    <hyperlink ref="A53" r:id="rId52" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111925" xr:uid="{63A12D71-DB7B-4D76-8132-B4FC1E84A9A0}"/>
+    <hyperlink ref="A54" r:id="rId53" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111927" xr:uid="{5894C440-8347-488C-8D32-A0D95C8F15FB}"/>
+    <hyperlink ref="A55" r:id="rId54" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102272" xr:uid="{EFD5F19D-47BE-4E30-91BA-65A34DC8DC1E}"/>
+    <hyperlink ref="A56" r:id="rId55" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102269" xr:uid="{9D760587-1F42-4A87-9067-B850EFB89B06}"/>
+    <hyperlink ref="A57" r:id="rId56" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114341" xr:uid="{8FDDF51D-AB00-4457-891F-9E442667177C}"/>
+    <hyperlink ref="A58" r:id="rId57" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69788266" xr:uid="{0060A23D-B4DD-417E-AA0E-E7AE08517CA9}"/>
+    <hyperlink ref="A59" r:id="rId58" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114342" xr:uid="{8DAFD207-A8F2-4528-824C-89F8C20E1F97}"/>
+    <hyperlink ref="A60" r:id="rId59" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69953709" xr:uid="{2F0F8348-079F-46DA-95CD-300CEB7E219A}"/>
+    <hyperlink ref="A61" r:id="rId60" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102188" xr:uid="{60F5B8FE-2C9E-4BC1-8E7D-172597F6EF20}"/>
+    <hyperlink ref="A62" r:id="rId61" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102182" xr:uid="{1B19E47D-14F0-4BEF-8180-BE2B3048A698}"/>
+    <hyperlink ref="A63" r:id="rId62" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107507" xr:uid="{CDBA84C3-F2DA-4BBD-B6EF-E32764FD497C}"/>
+    <hyperlink ref="A64" r:id="rId63" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102274" xr:uid="{1FDBED8E-A520-4FAD-89CF-297B7E2D6E77}"/>
+    <hyperlink ref="A65" r:id="rId64" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114346" xr:uid="{AF6BD793-7B22-41CA-9D7D-0D110F0A5936}"/>
+    <hyperlink ref="A66" r:id="rId65" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102241" xr:uid="{971C9DA6-4F0A-412D-A24E-8C9514F392B5}"/>
+    <hyperlink ref="A67" r:id="rId66" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69788267" xr:uid="{07505EFC-27C1-40B0-980F-CE9FE2C9B0C5}"/>
+    <hyperlink ref="A68" r:id="rId67" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102245" xr:uid="{955CE0DE-59DC-40B4-9866-EB69E1B1BBFE}"/>
+    <hyperlink ref="A69" r:id="rId68" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102271" xr:uid="{13281465-67E8-4C43-B781-01120C7EE39B}"/>
+    <hyperlink ref="A70" r:id="rId69" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69995566" xr:uid="{0AB720AD-5A19-4B65-9C66-7458197EF624}"/>
+    <hyperlink ref="A71" r:id="rId70" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114340" xr:uid="{235A0EE3-5A8C-456C-AF6F-8192000EC5AD}"/>
+    <hyperlink ref="A72" r:id="rId71" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102184" xr:uid="{53061A34-4349-4B70-8543-A59E366B5DFD}"/>
+    <hyperlink ref="A73" r:id="rId72" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69963442" xr:uid="{048665B7-4B98-42F6-B093-FF6D7A1FA518}"/>
+    <hyperlink ref="A74" r:id="rId73" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10102258" xr:uid="{36CB0B68-4129-4984-950B-A2F1D0FBD8CF}"/>
+    <hyperlink ref="A75" r:id="rId74" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110647" xr:uid="{A1F01D34-F74D-48F2-850A-474B352F22C2}"/>
+    <hyperlink ref="A76" r:id="rId75" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10112962" xr:uid="{CBBF4C8F-0455-4000-A965-D9986A422195}"/>
+    <hyperlink ref="A77" r:id="rId76" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114348" xr:uid="{AA4584B9-E176-4DE1-B33A-AC7779010BB5}"/>
+    <hyperlink ref="A78" r:id="rId77" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105165" xr:uid="{7E6A3EF8-8162-46F9-9555-89662CCF2852}"/>
+    <hyperlink ref="A79" r:id="rId78" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105167" xr:uid="{6B3D539E-9FD9-4C13-9B8F-2426E722EE51}"/>
+    <hyperlink ref="A80" r:id="rId79" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107264" xr:uid="{A29890B8-93B5-4179-8C8C-E95ECE686287}"/>
+    <hyperlink ref="A81" r:id="rId80" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725907" xr:uid="{968859A6-30F5-4BDE-A6C5-4E6811107CE8}"/>
+    <hyperlink ref="A82" r:id="rId81" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725913" xr:uid="{AD4B55A6-74A1-4161-8327-3058A0F5003E}"/>
+    <hyperlink ref="A83" r:id="rId82" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69969253" xr:uid="{F328DD73-A142-46BD-9589-E7DF0635F0DF}"/>
+    <hyperlink ref="A84" r:id="rId83" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114157" xr:uid="{6DD238DD-AF7B-4228-8732-029E5183452A}"/>
+    <hyperlink ref="A85" r:id="rId84" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114158" xr:uid="{B466E0E8-D9DA-412D-964B-7BD1DDFA0DAE}"/>
+    <hyperlink ref="A86" r:id="rId85" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114159" xr:uid="{F8CFBEBE-5BB3-442A-A490-DA9631AE5E1E}"/>
+    <hyperlink ref="A87" r:id="rId86" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105158" xr:uid="{0AB60D38-ABEC-4E5F-98C5-1693FBC7F8DC}"/>
+    <hyperlink ref="A88" r:id="rId87" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105164" xr:uid="{F4C93CF0-F9A0-4D35-80A6-12EBDAEFCAAE}"/>
+    <hyperlink ref="A89" r:id="rId88" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107260" xr:uid="{FC3B5E86-0316-4BCF-B09C-507E0CE10D02}"/>
+    <hyperlink ref="A90" r:id="rId89" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110747" xr:uid="{8739AF75-ADE3-4F36-8205-049C55BC546C}"/>
+    <hyperlink ref="A91" r:id="rId90" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110754" xr:uid="{E648E3EC-9094-4EBC-AAAD-38EC87E7601D}"/>
+    <hyperlink ref="A92" r:id="rId91" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107269" xr:uid="{F3BA0725-93D4-43BC-85A7-C919CCE27674}"/>
+    <hyperlink ref="A93" r:id="rId92" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69912266" xr:uid="{E00357AD-89D1-453B-8448-5B841A4E67B0}"/>
+    <hyperlink ref="A94" r:id="rId93" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111605" xr:uid="{6A8A8445-CC27-4217-AD4F-12727B7E2F30}"/>
+    <hyperlink ref="A95" r:id="rId94" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107266" xr:uid="{35FD8611-3D09-46D6-A9CB-2653033F8B75}"/>
+    <hyperlink ref="A96" r:id="rId95" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114151" xr:uid="{D9DA50E9-F2B9-4F5E-AD72-E9DFBFB9B7B1}"/>
+    <hyperlink ref="A97" r:id="rId96" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=60728748" xr:uid="{DB298F1A-CA44-4B88-9F83-7DA80B2D159B}"/>
+    <hyperlink ref="A98" r:id="rId97" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=70009424" xr:uid="{858074ED-3C70-4C39-AB1B-D50C2D8B1BDB}"/>
+    <hyperlink ref="A99" r:id="rId98" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105155" xr:uid="{7887A2ED-ADA0-456F-B028-1A1EF14A039E}"/>
+    <hyperlink ref="A100" r:id="rId99" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105157" xr:uid="{F27EA797-E9C2-4D74-96FB-3E777700B981}"/>
+    <hyperlink ref="A101" r:id="rId100" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105160" xr:uid="{E295A045-B770-418A-A751-3B2CE2A885D3}"/>
+    <hyperlink ref="A102" r:id="rId101" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105170" xr:uid="{B1636602-A502-4ABB-BC76-9A33B30104F7}"/>
+    <hyperlink ref="A103" r:id="rId102" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107263" xr:uid="{211FBC35-C2F3-45C3-9ADC-89B901A46A15}"/>
+    <hyperlink ref="A104" r:id="rId103" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110755" xr:uid="{052DBCFD-91D4-4548-9548-4D6E3D1435BE}"/>
+    <hyperlink ref="A105" r:id="rId104" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10111941" xr:uid="{1B047EB1-E3B6-4AEA-B78C-8A0B3596BF55}"/>
+    <hyperlink ref="A106" r:id="rId105" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105169" xr:uid="{BDB4742C-0347-4C70-A22E-94F48014B72A}"/>
+    <hyperlink ref="A107" r:id="rId106" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725893" xr:uid="{38318098-0F3B-4848-9C40-D1E5E09E3E6F}"/>
+    <hyperlink ref="A108" r:id="rId107" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69982309" xr:uid="{1BE5BAAB-0D93-444F-8B02-9605267FE258}"/>
+    <hyperlink ref="A109" r:id="rId108" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114149" xr:uid="{17F5D2B0-A074-4C85-9A10-80C0D43A493F}"/>
+    <hyperlink ref="A110" r:id="rId109" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105163" xr:uid="{48E947D6-0581-4F5F-96C5-707F8E799DF2}"/>
+    <hyperlink ref="A111" r:id="rId110" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105179" xr:uid="{5324D8E3-5934-4CB6-A514-3E2F40360224}"/>
+    <hyperlink ref="A112" r:id="rId111" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107261" xr:uid="{7EE61195-8189-4E77-865E-1F90DB702053}"/>
+    <hyperlink ref="A113" r:id="rId112" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107265" xr:uid="{7422CFC9-48B9-4D94-A7DD-325CA287F9F8}"/>
+    <hyperlink ref="A114" r:id="rId113" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725894" xr:uid="{9A86C1C6-0E69-4235-A0D2-A7CFB1AE9994}"/>
+    <hyperlink ref="A115" r:id="rId114" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10112958" xr:uid="{4E3FF7C7-4316-4D36-AF48-477BA5AF036B}"/>
+    <hyperlink ref="A116" r:id="rId115" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69880232" xr:uid="{A4506FF9-A51A-4AF6-BCB9-2A9CD4CC1E10}"/>
+    <hyperlink ref="A117" r:id="rId116" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107256" xr:uid="{BD217FDB-36E1-42C9-9EA3-37DAC2D4E55F}"/>
+    <hyperlink ref="A118" r:id="rId117" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69969249" xr:uid="{C6B0DA0C-893D-4611-A4E3-06EDA1ADA206}"/>
+    <hyperlink ref="A119" r:id="rId118" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=70028343" xr:uid="{AA377DA3-727C-4D25-82E0-07C787951064}"/>
+    <hyperlink ref="A120" r:id="rId119" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69977134" xr:uid="{A5EBEBDC-7D25-44BB-AAAC-B8DE28675864}"/>
+    <hyperlink ref="A121" r:id="rId120" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114152" xr:uid="{DA37976D-9C78-4609-8FBD-3A356AD8C537}"/>
+    <hyperlink ref="A122" r:id="rId121" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114153" xr:uid="{7C57A5E7-A293-4384-8129-69F9EEB0687C}"/>
+    <hyperlink ref="A123" r:id="rId122" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105162" xr:uid="{8B464A2C-D71D-45B8-9D23-337367C94F17}"/>
+    <hyperlink ref="A124" r:id="rId123" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105168" xr:uid="{784894DD-373E-44F4-A760-3501DBD6B816}"/>
+    <hyperlink ref="A125" r:id="rId124" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110748" xr:uid="{02F3AC19-AF35-486B-9FFF-27AFD04942E7}"/>
+    <hyperlink ref="A126" r:id="rId125" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110749" xr:uid="{FDEF5B2B-FC99-47D9-8D50-9D41767ACE2F}"/>
+    <hyperlink ref="A127" r:id="rId126" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725914" xr:uid="{CA93FA28-785E-4BEB-A4E7-52523AC29A13}"/>
+    <hyperlink ref="A128" r:id="rId127" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110751" xr:uid="{AF08ACA7-4C67-4501-87AE-8B047B4D986C}"/>
+    <hyperlink ref="A129" r:id="rId128" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=60728747" xr:uid="{B48F5B7C-A4E5-4DF5-A1F7-A062F2CCEEFE}"/>
+    <hyperlink ref="A130" r:id="rId129" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114156" xr:uid="{6A7704C1-3D0D-4C22-9B5F-54641E248153}"/>
+    <hyperlink ref="A131" r:id="rId130" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114155" xr:uid="{47340E30-1B0D-4100-A6DD-50A9BF24EFFB}"/>
+    <hyperlink ref="A132" r:id="rId131" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114154" xr:uid="{8AD97D77-9B78-4FD8-8D1B-203F26FA9B51}"/>
+    <hyperlink ref="A133" r:id="rId132" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69990269" xr:uid="{71E9BEA2-AEA4-47D3-9139-A1D391ACC10F}"/>
+    <hyperlink ref="A134" r:id="rId133" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107259" xr:uid="{110401DF-5658-4809-9231-0B9CB7B66122}"/>
+    <hyperlink ref="A135" r:id="rId134" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105161" xr:uid="{0DE1C97A-F34D-47BC-8733-6976115F1725}"/>
+    <hyperlink ref="A136" r:id="rId135" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105166" xr:uid="{7C688550-A298-48E1-96AF-7ED74EB2ED9F}"/>
+    <hyperlink ref="A137" r:id="rId136" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107262" xr:uid="{AC28196C-D298-46DD-9243-4C396A73E8BF}"/>
+    <hyperlink ref="A138" r:id="rId137" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69895043" xr:uid="{8400E347-A009-4281-8A53-25601BE6AAB1}"/>
+    <hyperlink ref="A139" r:id="rId138" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114160" xr:uid="{CB8AEF82-3B97-4F77-A6E3-031C70982F9D}"/>
+    <hyperlink ref="A140" r:id="rId139" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114161" xr:uid="{9D2F58AC-9DC5-43A2-99E5-55D3AD47FEDC}"/>
+    <hyperlink ref="A141" r:id="rId140" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107268" xr:uid="{8A7C4525-2527-4D12-B66F-08F59635651C}"/>
+    <hyperlink ref="A142" r:id="rId141" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69760697" xr:uid="{7351B1C6-04DB-4E26-8416-6B60ADED9271}"/>
+    <hyperlink ref="A143" r:id="rId142" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10107267" xr:uid="{5C51B4E1-FB5D-4391-ABA3-329E388DC3B8}"/>
+    <hyperlink ref="A144" r:id="rId143" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69989234" xr:uid="{A5D6E828-337C-4D80-8B06-E94C17A196C0}"/>
+    <hyperlink ref="A145" r:id="rId144" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69980614" xr:uid="{F947421E-D7D3-4348-AFD7-A11CA8B5FC2D}"/>
+    <hyperlink ref="A146" r:id="rId145" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10114150" xr:uid="{2DC123DF-7374-46B4-921B-2CB8CBE1FAC6}"/>
+    <hyperlink ref="A147" r:id="rId146" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110756" xr:uid="{FD2FCFD2-0D7B-4E7C-B059-421267304C80}"/>
+    <hyperlink ref="A148" r:id="rId147" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110753" xr:uid="{27B954DD-EB87-47FC-BE71-ACDB87C96C82}"/>
+    <hyperlink ref="A149" r:id="rId148" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725892" xr:uid="{15184E7A-B52F-4684-A836-497B8D5E358C}"/>
+    <hyperlink ref="A150" r:id="rId149" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=69725878" xr:uid="{D28FCF63-6454-4E39-B2B5-B4CD16243BBC}"/>
+    <hyperlink ref="A151" r:id="rId150" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105159" xr:uid="{4A04115F-4C8A-4108-B780-B56B70E50500}"/>
+    <hyperlink ref="A152" r:id="rId151" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10110750" xr:uid="{ADACAF1F-CFF9-42E1-8E68-065C28B88C67}"/>
+    <hyperlink ref="A153" r:id="rId152" tooltip="Tampilkan Profil Sekolah" display="https://referensi.data.kemdikbud.go.id/tabs.php?npsn=10105156" xr:uid="{1F4BE010-2723-45E4-9176-210DC0B29025}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId153"/>
 </worksheet>
 </file>